--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value195.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value195.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.156218693383485</v>
+        <v>4.669677734375</v>
       </c>
       <c r="B1">
-        <v>1.855857135658642</v>
+        <v>3.712538003921509</v>
       </c>
       <c r="C1">
-        <v>2.764369522840552</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.262056775454889</v>
+        <v>3.738809108734131</v>
       </c>
       <c r="E1">
-        <v>0.6438931215239246</v>
+        <v>3.055070638656616</v>
       </c>
     </row>
   </sheetData>
